--- a/TAMS/Content/File/Book1.xlsx
+++ b/TAMS/Content/File/Book1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\duong\source\repos\template\TAMS\Content\File\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\duong\OneDrive\Máy tính\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="66">
   <si>
     <t>q1</t>
   </si>
@@ -32,44 +32,215 @@
     <t>Text</t>
   </si>
   <si>
-    <t>CheckBox</t>
-  </si>
-  <si>
     <t>q2</t>
   </si>
   <si>
     <t>q3</t>
   </si>
   <si>
-    <t>q1a1</t>
-  </si>
-  <si>
-    <t>q1a2</t>
-  </si>
-  <si>
-    <t>q1a3</t>
-  </si>
-  <si>
-    <t>q2a1</t>
-  </si>
-  <si>
-    <t>q3a1</t>
-  </si>
-  <si>
-    <t>q3a2</t>
+    <t>Radio</t>
+  </si>
+  <si>
+    <t>Java</t>
+  </si>
+  <si>
+    <t>q4</t>
+  </si>
+  <si>
+    <t>q5</t>
+  </si>
+  <si>
+    <t>q6</t>
+  </si>
+  <si>
+    <t>q7</t>
+  </si>
+  <si>
+    <t>q8</t>
+  </si>
+  <si>
+    <t>q9</t>
+  </si>
+  <si>
+    <t>q10</t>
+  </si>
+  <si>
+    <t>q11</t>
+  </si>
+  <si>
+    <t>q12</t>
+  </si>
+  <si>
+    <t>q13</t>
+  </si>
+  <si>
+    <t>a1q2</t>
+  </si>
+  <si>
+    <t>a1q3</t>
+  </si>
+  <si>
+    <t>a1q4</t>
+  </si>
+  <si>
+    <t>a1q5</t>
+  </si>
+  <si>
+    <t>a1q6</t>
+  </si>
+  <si>
+    <t>a1q7</t>
+  </si>
+  <si>
+    <t>a1q8</t>
+  </si>
+  <si>
+    <t>a1q9</t>
+  </si>
+  <si>
+    <t>a1q10</t>
+  </si>
+  <si>
+    <t>a1q11</t>
+  </si>
+  <si>
+    <t>a1q12</t>
+  </si>
+  <si>
+    <t>a1q13</t>
+  </si>
+  <si>
+    <t>a2q2</t>
+  </si>
+  <si>
+    <t>q3q3</t>
+  </si>
+  <si>
+    <t>a3q3</t>
+  </si>
+  <si>
+    <t>a2q3</t>
+  </si>
+  <si>
+    <t>a2q4</t>
+  </si>
+  <si>
+    <t>a2q5</t>
+  </si>
+  <si>
+    <t>a2q6</t>
+  </si>
+  <si>
+    <t>a3q4</t>
+  </si>
+  <si>
+    <t>a3q5</t>
+  </si>
+  <si>
+    <t>a3q6</t>
+  </si>
+  <si>
+    <t>a3q7</t>
+  </si>
+  <si>
+    <t>a3q8</t>
+  </si>
+  <si>
+    <t>a3q9</t>
+  </si>
+  <si>
+    <t>a3q10</t>
+  </si>
+  <si>
+    <t>a3q11</t>
+  </si>
+  <si>
+    <t>a3q12</t>
+  </si>
+  <si>
+    <t>a3q13</t>
+  </si>
+  <si>
+    <t>a4q13</t>
+  </si>
+  <si>
+    <t>Checkbox</t>
+  </si>
+  <si>
+    <t>q14</t>
+  </si>
+  <si>
+    <t>q15</t>
+  </si>
+  <si>
+    <t>q16</t>
+  </si>
+  <si>
+    <t>q17</t>
+  </si>
+  <si>
+    <t>q18</t>
+  </si>
+  <si>
+    <t>q19</t>
+  </si>
+  <si>
+    <t>q20</t>
+  </si>
+  <si>
+    <t>q21</t>
+  </si>
+  <si>
+    <t>q22</t>
+  </si>
+  <si>
+    <t>q23</t>
+  </si>
+  <si>
+    <t>q24</t>
+  </si>
+  <si>
+    <t>q25</t>
+  </si>
+  <si>
+    <t>q26</t>
+  </si>
+  <si>
+    <t>q27</t>
+  </si>
+  <si>
+    <t>q28</t>
+  </si>
+  <si>
+    <t>a4q14</t>
+  </si>
+  <si>
+    <t>a4q15</t>
+  </si>
+  <si>
+    <t>a1q14</t>
+  </si>
+  <si>
+    <t>a1q15</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -92,8 +263,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,10 +548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -386,67 +560,769 @@
     <col min="10" max="10" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B6" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="F3" t="b">
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" t="s">
+        <v>42</v>
+      </c>
+      <c r="I11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" t="b">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" t="s">
+        <v>43</v>
+      </c>
+      <c r="I12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" t="b">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13" t="s">
+        <v>44</v>
+      </c>
+      <c r="I13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" t="s">
+        <v>45</v>
+      </c>
+      <c r="K13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F14" t="str">
+        <f>ADDRESS(ROW(),COLUMN(),4)</f>
+        <v>F14</v>
+      </c>
+      <c r="G14" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" t="str">
+        <f>ADDRESS(ROW(),COLUMN(),4)</f>
+        <v>H14</v>
+      </c>
+      <c r="I14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" t="s">
+        <v>62</v>
+      </c>
+      <c r="K14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" t="b">
+        <v>1</v>
+      </c>
+      <c r="F15" t="str">
+        <f>ADDRESS(ROW(),COLUMN(),4)</f>
+        <v>F15</v>
+      </c>
+      <c r="G15" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" t="str">
+        <f>ADDRESS(ROW(),COLUMN(),4)</f>
+        <v>H15</v>
+      </c>
+      <c r="I15" t="b">
+        <v>1</v>
+      </c>
+      <c r="J15" t="s">
+        <v>63</v>
+      </c>
+      <c r="K15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" t="str">
+        <f>ADDRESS(ROW(),COLUMN(),4)</f>
+        <v>D16</v>
+      </c>
+      <c r="E16" t="b">
+        <v>1</v>
+      </c>
+      <c r="F16" t="str">
+        <f>ADDRESS(ROW(),COLUMN(),4)</f>
+        <v>F16</v>
+      </c>
+      <c r="G16" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" t="str">
+        <f>ADDRESS(ROW(),COLUMN(),4)</f>
+        <v>H16</v>
+      </c>
+      <c r="I16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" t="str">
+        <f>ADDRESS(ROW(),COLUMN(),4)</f>
+        <v>D17</v>
+      </c>
+      <c r="E17" t="b">
+        <v>1</v>
+      </c>
+      <c r="F17" t="str">
+        <f>ADDRESS(ROW(),COLUMN(),4)</f>
+        <v>F17</v>
+      </c>
+      <c r="G17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" t="str">
+        <f>ADDRESS(ROW(),COLUMN(),4)</f>
+        <v>H17</v>
+      </c>
+      <c r="I17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" t="str">
+        <f>ADDRESS(ROW(),COLUMN(),4)</f>
+        <v>D18</v>
+      </c>
+      <c r="E18" t="b">
+        <v>0</v>
+      </c>
+      <c r="F18" t="str">
+        <f>ADDRESS(ROW(),COLUMN(),4)</f>
+        <v>F18</v>
+      </c>
+      <c r="G18" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" t="str">
+        <f>ADDRESS(ROW(),COLUMN(),4)</f>
+        <v>H18</v>
+      </c>
+      <c r="I18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" t="str">
+        <f>ADDRESS(ROW(),COLUMN(),4)</f>
+        <v>D19</v>
+      </c>
+      <c r="E19" t="b">
+        <v>1</v>
+      </c>
+      <c r="F19" t="str">
+        <f>ADDRESS(ROW(),COLUMN(),4)</f>
+        <v>F19</v>
+      </c>
+      <c r="G19" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19" t="str">
+        <f>ADDRESS(ROW(),COLUMN(),4)</f>
+        <v>H19</v>
+      </c>
+      <c r="I19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" t="str">
+        <f>ADDRESS(ROW(),COLUMN(),4)</f>
+        <v>D20</v>
+      </c>
+      <c r="E20" t="b">
+        <v>1</v>
+      </c>
+      <c r="F20" t="str">
+        <f>ADDRESS(ROW(),COLUMN(),4)</f>
+        <v>F20</v>
+      </c>
+      <c r="G20" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" t="str">
+        <f>ADDRESS(ROW(),COLUMN(),4)</f>
+        <v>H20</v>
+      </c>
+      <c r="I20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" t="str">
+        <f>ADDRESS(ROW(),COLUMN(),4)</f>
+        <v>D21</v>
+      </c>
+      <c r="E21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" t="str">
+        <f>ADDRESS(ROW(),COLUMN(),4)</f>
+        <v>D22</v>
+      </c>
+      <c r="E22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" t="str">
+        <f>ADDRESS(ROW(),COLUMN(),4)</f>
+        <v>D23</v>
+      </c>
+      <c r="E23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" t="str">
+        <f>ADDRESS(ROW(),COLUMN(),4)</f>
+        <v>D24</v>
+      </c>
+      <c r="E24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" t="str">
+        <f>ADDRESS(ROW(),COLUMN(),4)</f>
+        <v>D25</v>
+      </c>
+      <c r="E25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" t="str">
+        <f>ADDRESS(ROW(),COLUMN(),4)</f>
+        <v>D26</v>
+      </c>
+      <c r="E26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" t="str">
+        <f>ADDRESS(ROW(),COLUMN(),4)</f>
+        <v>D27</v>
+      </c>
+      <c r="E27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" t="str">
+        <f>ADDRESS(ROW(),COLUMN(),4)</f>
+        <v>D28</v>
+      </c>
+      <c r="E28" t="b">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>